--- a/Analyse.xlsx
+++ b/Analyse.xlsx
@@ -612,11 +612,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-294303776"/>
-        <c:axId val="-294310304"/>
+        <c:axId val="577093696"/>
+        <c:axId val="577089888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-294303776"/>
+        <c:axId val="577093696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -659,7 +659,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-294310304"/>
+        <c:crossAx val="577089888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -667,7 +667,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-294310304"/>
+        <c:axId val="577089888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -718,7 +718,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-294303776"/>
+        <c:crossAx val="577093696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1111,11 +1111,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-294309760"/>
-        <c:axId val="-294308128"/>
+        <c:axId val="577092608"/>
+        <c:axId val="577094240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-294309760"/>
+        <c:axId val="577092608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1158,7 +1158,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-294308128"/>
+        <c:crossAx val="577094240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1166,7 +1166,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-294308128"/>
+        <c:axId val="577094240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1217,7 +1217,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-294309760"/>
+        <c:crossAx val="577092608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2450,19 +2450,19 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="mean_diff_landmarks_0.25_std" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="final_diff_normal_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="mean_diff_landmarks_0.1_std" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="final_diff_landmarks_0.1_std" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="mean_diff_wheelbase_25percent_std" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="final_diff_wheelbase_10percent_std" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="final_diff_normal_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="mean_diff_normal_4" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2470,27 +2470,27 @@
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="mean_diff_wheelbase_10percent_std" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="final_diff_landmarks_0.25_std" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="mean_diff_landmarks_0.1_std" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="mean_diff_normal_3" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="final_diff_landmarks_0.1_std" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="final_diff_wheelbase_10percent_std" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="mean_diff_normal_4" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="mean_diff_landmarks_0.25_std" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="mean_diff_wheelbase_10percent_std" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="mean_diff_wheelbase_25percent_std" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2759,7 +2759,7 @@
   <dimension ref="B1:AI1019"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
